--- a/medicine/Hématologie/Adénosylcobalamine/Adénosylcobalamine.xlsx
+++ b/medicine/Hématologie/Adénosylcobalamine/Adénosylcobalamine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nosylcobalamine</t>
+          <t>Adénosylcobalamine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'adénosylcobalamine, également appelée cobamamide, adocobalamine, voire dibencozide, est l'une des formes actives de vitamine B12, avec la méthylcobalamine. Elle est disponible commercialement sous forme de comprimés, mais pas sous forme injectable, contrairement aux trois autres formes de vitamine B12 (méthylcobalamine, hydroxocobalamine et cyanocobalamine).
-La méthylmalonyl-CoA mutase est une enzyme qui utilise l'adénosylcobalamine comme cofacteur[2].
+La méthylmalonyl-CoA mutase est une enzyme qui utilise l'adénosylcobalamine comme cofacteur.
 </t>
         </is>
       </c>
